--- a/Open Time Optimization(Reinforcement Learning)/RL_Iteration_Results.xlsx
+++ b/Open Time Optimization(Reinforcement Learning)/RL_Iteration_Results.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\ADP\Open Time Optimization(Reinforcement Learning)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE860BA-C031-4B13-B9B0-959D40031BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Means</t>
   </si>
@@ -65,22 +75,27 @@
   </si>
   <si>
     <t>Saturday</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,35 +104,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -134,7 +162,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-IN" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -147,15 +175,24 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -171,15 +208,86 @@
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0th</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600th</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700th</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800th</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900th</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$4:$L$4</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D095-4AD4-89DD-29F7B18D706D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -187,6 +295,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -202,15 +316,86 @@
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0th</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600th</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700th</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800th</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900th</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$5:$L$5</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>167</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D095-4AD4-89DD-29F7B18D706D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -218,6 +403,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -233,15 +424,86 @@
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0th</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600th</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700th</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800th</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900th</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$6:$L$6</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D095-4AD4-89DD-29F7B18D706D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -249,6 +511,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -264,15 +532,86 @@
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0th</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600th</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700th</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800th</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900th</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$7:$L$7</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D095-4AD4-89DD-29F7B18D706D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -280,6 +619,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -295,15 +640,86 @@
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0th</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600th</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700th</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800th</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900th</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$8:$L$8</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>293</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D095-4AD4-89DD-29F7B18D706D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -311,6 +727,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Friday</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -326,15 +748,86 @@
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0th</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600th</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700th</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800th</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900th</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$9:$L$9</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D095-4AD4-89DD-29F7B18D706D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -342,6 +835,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -357,16 +856,96 @@
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$C$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0th</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600th</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700th</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800th</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900th</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$10:$L$10</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D095-4AD4-89DD-29F7B18D706D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1333964895"/>
         <c:axId val="537601216"/>
       </c:lineChart>
@@ -391,15 +970,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -408,7 +979,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -421,9 +992,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="537601216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="537601216"/>
@@ -466,15 +1043,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -499,9 +1068,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1333964895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -519,16 +1091,24 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -537,9 +1117,15 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8296275" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -548,7 +1134,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -558,7 +1144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -748,20 +1334,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,273 +1385,294 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="E4" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="L4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>0.088</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="F5" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="G5" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="H5" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="I5" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="J5" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="K5" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="L5" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="E6" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="F6" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H6" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="I6" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="J6" s="1">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="K6" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="L6" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="G7" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="H7" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="I7" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="J7" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="K7" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="L7" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>0.096</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="F8" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="G8" s="1">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="H8" s="1">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="I8" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="J8" s="1">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="K8" s="1">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="L8" s="1">
-        <v>293.0</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>0.093</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E9" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="F9" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="G9" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="H9" s="1">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="I9" s="1">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="J9" s="1">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="K9" s="1">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="L9" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="E10" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="F10" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="G10" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="H10" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="I10" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="K10" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="L10" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FAC8AC-D22D-4FBE-9DB4-867CF3BEDA25}">
+  <dimension ref="E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>